--- a/SoilBoringLog.xlsx
+++ b/SoilBoringLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\soil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74F65C4-D9EB-4B7A-8FBE-95E30ECAB24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F06EFC-C741-480A-9623-85CD7747CFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,6 +551,9 @@
       <c r="D4">
         <v>120</v>
       </c>
+      <c r="E4">
+        <v>1.8</v>
+      </c>
       <c r="K4" t="s">
         <v>18</v>
       </c>
@@ -571,6 +574,9 @@
       <c r="D5">
         <v>90</v>
       </c>
+      <c r="E5">
+        <v>1.6</v>
+      </c>
       <c r="K5" t="s">
         <v>18</v>
       </c>
@@ -591,6 +597,9 @@
       <c r="D6">
         <v>60</v>
       </c>
+      <c r="E6">
+        <v>1.7</v>
+      </c>
       <c r="K6" t="s">
         <v>18</v>
       </c>
@@ -611,6 +620,9 @@
       <c r="D7">
         <v>60</v>
       </c>
+      <c r="E7">
+        <v>1.8</v>
+      </c>
       <c r="K7" t="s">
         <v>18</v>
       </c>
@@ -631,6 +643,9 @@
       <c r="D8">
         <v>80</v>
       </c>
+      <c r="E8">
+        <v>1.9</v>
+      </c>
       <c r="K8" t="s">
         <v>18</v>
       </c>
@@ -651,6 +666,9 @@
       <c r="D9">
         <v>55</v>
       </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
       <c r="K9" t="s">
         <v>18</v>
       </c>
@@ -671,6 +689,9 @@
       <c r="D10">
         <v>62</v>
       </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
       <c r="K10" t="s">
         <v>18</v>
       </c>
@@ -691,6 +712,9 @@
       <c r="D11">
         <v>60</v>
       </c>
+      <c r="E11">
+        <v>1.9</v>
+      </c>
       <c r="K11" t="s">
         <v>18</v>
       </c>
@@ -711,6 +735,9 @@
       <c r="D12">
         <v>30</v>
       </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
       <c r="K12" t="s">
         <v>18</v>
       </c>
@@ -731,6 +758,9 @@
       <c r="D13">
         <v>30</v>
       </c>
+      <c r="E13">
+        <v>1.9</v>
+      </c>
       <c r="H13">
         <v>70</v>
       </c>
@@ -757,6 +787,9 @@
       <c r="D14">
         <v>28</v>
       </c>
+      <c r="E14">
+        <v>1.8</v>
+      </c>
       <c r="K14" t="s">
         <v>18</v>
       </c>
@@ -777,6 +810,9 @@
       <c r="D15">
         <v>25</v>
       </c>
+      <c r="E15">
+        <v>1.7</v>
+      </c>
       <c r="K15" t="s">
         <v>18</v>
       </c>
@@ -797,6 +833,9 @@
       <c r="D16">
         <v>21</v>
       </c>
+      <c r="E16">
+        <v>1.8</v>
+      </c>
       <c r="K16" t="s">
         <v>20</v>
       </c>
@@ -817,6 +856,9 @@
       <c r="D17">
         <v>19</v>
       </c>
+      <c r="E17">
+        <v>1.9</v>
+      </c>
       <c r="K17" t="s">
         <v>18</v>
       </c>
@@ -837,6 +879,9 @@
       <c r="D18">
         <v>20</v>
       </c>
+      <c r="E18">
+        <v>1.9</v>
+      </c>
       <c r="K18" t="s">
         <v>18</v>
       </c>
@@ -856,6 +901,9 @@
       </c>
       <c r="D19">
         <v>20</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
       </c>
       <c r="K19" t="s">
         <v>18</v>
